--- a/Tool1/Validationtool/ModelValidation.xlsx
+++ b/Tool1/Validationtool/ModelValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominic\Dropbox\UniSync\Osnabrück\SS18\PG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A44B6C8-0FF3-4879-BD55-0A864191D145}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F680F-F703-4387-A130-CFB06A8ECAED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17900" xr2:uid="{ED50855D-2990-47A1-92F3-4A990C09F6ED}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Model</t>
-  </si>
-  <si>
-    <t>Bernoulli</t>
   </si>
   <si>
     <t>Simple Gilbert</t>
@@ -196,13 +193,19 @@
   <si>
     <t xml:space="preserve">p-values are approximated! </t>
   </si>
+  <si>
+    <t>Bernoulli_GEMODEL</t>
+  </si>
+  <si>
+    <t>Bernoulli_RAND</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -292,29 +295,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -340,12 +344,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>415925</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>3175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1766637" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
@@ -387,6 +391,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -590,7 +595,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="Textfeld 1">
@@ -958,15 +963,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB07146-DB68-40E7-926F-93C0FA4C0D51}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9.6328125" customWidth="1"/>
     <col min="9" max="10" width="12.26953125" customWidth="1"/>
@@ -974,84 +979,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="2"/>
+      <c r="M1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
         <v>0.10723000000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.11935999999999999</v>
       </c>
       <c r="E3">
@@ -1069,15 +1074,15 @@
       <c r="I3">
         <v>5.9244999999999999E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>2.2E-16</v>
       </c>
       <c r="K3">
-        <f>SQRT(-0.5*LN($I$12/2)*((M3+N3)/(M3*N3)))</f>
+        <f>SQRT(-0.5*LN($I$13/2)*((M3+N3)/(M3*N3)))</f>
         <v>1.3381115627827997E-2</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>28</v>
+      <c r="L3" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="M3">
         <v>42878</v>
@@ -1086,291 +1091,336 @@
         <v>42031</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.120475</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.11935999999999999</v>
+      </c>
+      <c r="E4">
+        <v>175905</v>
+      </c>
+      <c r="F4">
+        <v>176128</v>
+      </c>
+      <c r="G4">
+        <v>24095</v>
+      </c>
+      <c r="H4">
+        <v>23872</v>
+      </c>
+      <c r="I4">
+        <v>3.0614000000000001E-3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="0">SQRT(-0.5*LN($I$13/2)*((M4+N4)/(M4*N4)))</f>
+        <v>1.3423211924969435E-2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>42339</v>
+      </c>
+      <c r="N4">
+        <v>42031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.12307999999999999</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D5" s="3">
         <v>0.122935</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>175384</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>175413</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>24616</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>24587</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>2.1459999999999999E-3</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K7" si="0">SQRT(-0.5*LN($I$12/2)*((M4+N4)/(M4*N4)))</f>
-        <v>1.3482870410341226E-2</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4">
-        <v>41767</v>
-      </c>
-      <c r="N4">
-        <v>41857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.111355</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.11057</v>
-      </c>
-      <c r="E5">
-        <v>177729</v>
-      </c>
-      <c r="F5">
-        <v>177886</v>
-      </c>
-      <c r="G5">
-        <v>22271</v>
-      </c>
-      <c r="H5">
-        <v>22114</v>
-      </c>
-      <c r="I5">
-        <v>3.3354999999999999E-3</v>
-      </c>
-      <c r="J5">
-        <v>0.98319999999999996</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>1.4073203722859629E-2</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>30</v>
+        <v>1.3482870410341226E-2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="M5">
-        <v>38481</v>
+        <v>41767</v>
       </c>
       <c r="N5">
-        <v>38275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="58" x14ac:dyDescent="0.35">
+        <v>41857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.23382500000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.23288</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.111355</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.11057</v>
       </c>
       <c r="E6">
-        <v>153235</v>
+        <v>177729</v>
       </c>
       <c r="F6">
-        <v>153424</v>
+        <v>177886</v>
       </c>
       <c r="G6">
-        <v>46765</v>
+        <v>22271</v>
       </c>
       <c r="H6">
-        <v>46576</v>
+        <v>22114</v>
       </c>
       <c r="I6">
-        <v>3.7058999999999998E-3</v>
+        <v>3.3354999999999999E-3</v>
       </c>
       <c r="J6">
-        <v>0.75590000000000002</v>
+        <v>0.98319999999999996</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>1.07385505269559E-2</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>30</v>
+        <v>1.4073203722859629E-2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>66286</v>
+        <v>38481</v>
       </c>
       <c r="N6">
-        <v>65545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+        <v>38275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.23382500000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.23288</v>
+      </c>
+      <c r="E7">
+        <v>153235</v>
+      </c>
+      <c r="F7">
+        <v>153424</v>
+      </c>
+      <c r="G7">
+        <v>46765</v>
+      </c>
+      <c r="H7">
+        <v>46576</v>
+      </c>
+      <c r="I7">
+        <v>3.7058999999999998E-3</v>
+      </c>
+      <c r="J7">
+        <v>0.75590000000000002</v>
+      </c>
+      <c r="K7">
+        <f>SQRT(-0.5*LN($I$13/2)*((M7+N7)/(M7*N7)))</f>
+        <v>1.07385505269559E-2</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7">
+        <v>66286</v>
+      </c>
+      <c r="N7">
+        <v>65545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
         <v>0.24539</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D8" s="3">
         <v>0.246225</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>150922</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>150755</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>49078</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>49245</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>1.2685999999999999E-3</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="K8">
+        <f>SQRT(-0.5*LN($I$13/2)*((M8+N8)/(M8*N8)))</f>
         <v>9.6476557534526334E-3</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8">
+        <v>81532</v>
+      </c>
+      <c r="N8">
+        <v>81793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M7">
-        <v>81532</v>
-      </c>
-      <c r="N7">
-        <v>81793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1E-3</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="D13:G13"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
